--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/DE/20/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/DE/20/seed2/result_data_RandomForest.xlsx
@@ -474,7 +474,7 @@
         <v>-7.6</v>
       </c>
       <c r="E2" t="n">
-        <v>16.56000000000001</v>
+        <v>16.5306</v>
       </c>
     </row>
     <row r="3">
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.642399999999992</v>
+        <v>-7.013399999999993</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.015499999999994</v>
+        <v>-7.887499999999994</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -709,7 +709,7 @@
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.570000000000011</v>
+        <v>-8.763100000000003</v>
       </c>
       <c r="E16" t="n">
         <v>14.68</v>
@@ -746,7 +746,7 @@
         <v>-6.27</v>
       </c>
       <c r="E18" t="n">
-        <v>18.52950000000001</v>
+        <v>18.67260000000001</v>
       </c>
     </row>
     <row r="19">
@@ -794,7 +794,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.162399999999996</v>
+        <v>-8.429799999999995</v>
       </c>
       <c r="E21" t="n">
         <v>16.94</v>
@@ -828,7 +828,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.297699999999995</v>
+        <v>-7.052599999999995</v>
       </c>
       <c r="E23" t="n">
         <v>17.37</v>
@@ -848,7 +848,7 @@
         <v>-7.7</v>
       </c>
       <c r="E24" t="n">
-        <v>16.44330000000001</v>
+        <v>16.4167</v>
       </c>
     </row>
     <row r="25">
@@ -862,10 +862,10 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.491899999999999</v>
+        <v>-7.543599999999998</v>
       </c>
       <c r="E25" t="n">
-        <v>17.02230000000001</v>
+        <v>16.90630000000001</v>
       </c>
     </row>
     <row r="26">
@@ -879,7 +879,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-8.821999999999999</v>
+        <v>-8.927399999999995</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.16509999999999</v>
+        <v>16.49099999999999</v>
       </c>
     </row>
     <row r="28">
@@ -930,7 +930,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-6.718799999999998</v>
+        <v>-7.022199999999995</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -950,7 +950,7 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>15.2516</v>
+        <v>15.3037</v>
       </c>
     </row>
     <row r="31">
@@ -967,7 +967,7 @@
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.29099999999999</v>
+        <v>15.8909</v>
       </c>
     </row>
     <row r="32">
@@ -1103,7 +1103,7 @@
         <v>-8.93</v>
       </c>
       <c r="E39" t="n">
-        <v>15.5196</v>
+        <v>15.4372</v>
       </c>
     </row>
     <row r="40">
@@ -1117,7 +1117,7 @@
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-8.464699999999995</v>
+        <v>-8.806799999999988</v>
       </c>
       <c r="E40" t="n">
         <v>16.16</v>
@@ -1154,7 +1154,7 @@
         <v>-7.75</v>
       </c>
       <c r="E42" t="n">
-        <v>16.6638</v>
+        <v>16.6842</v>
       </c>
     </row>
     <row r="43">
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.2349</v>
+        <v>17.2992</v>
       </c>
     </row>
     <row r="49">
@@ -1307,7 +1307,7 @@
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>17.10899999999999</v>
+        <v>17.1032</v>
       </c>
     </row>
     <row r="52">
@@ -1324,7 +1324,7 @@
         <v>-6.93</v>
       </c>
       <c r="E52" t="n">
-        <v>16.9006</v>
+        <v>16.9858</v>
       </c>
     </row>
     <row r="53">
@@ -1338,7 +1338,7 @@
         <v>-12.98</v>
       </c>
       <c r="D53" t="n">
-        <v>-6.306699999999994</v>
+        <v>-6.346699999999995</v>
       </c>
       <c r="E53" t="n">
         <v>18.53</v>
@@ -1375,7 +1375,7 @@
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.7045</v>
+        <v>16.592</v>
       </c>
     </row>
     <row r="56">
@@ -1392,7 +1392,7 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.0742</v>
+        <v>15.3544</v>
       </c>
     </row>
     <row r="57">
@@ -1406,10 +1406,10 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.611799999999997</v>
+        <v>-8.749999999999998</v>
       </c>
       <c r="E57" t="n">
-        <v>16.24120000000001</v>
+        <v>16.11620000000001</v>
       </c>
     </row>
     <row r="58">
@@ -1440,7 +1440,7 @@
         <v>-14.55</v>
       </c>
       <c r="D59" t="n">
-        <v>-8.596099999999998</v>
+        <v>-8.322200000000002</v>
       </c>
       <c r="E59" t="n">
         <v>16.47</v>
@@ -1460,7 +1460,7 @@
         <v>-9.630000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>15.84250000000001</v>
+        <v>15.5552</v>
       </c>
     </row>
     <row r="61">
@@ -1542,7 +1542,7 @@
         <v>-11.86</v>
       </c>
       <c r="D65" t="n">
-        <v>-7.798499999999994</v>
+        <v>-7.906099999999999</v>
       </c>
       <c r="E65" t="n">
         <v>17.18</v>
@@ -1610,7 +1610,7 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.146999999999998</v>
+        <v>-7.077099999999997</v>
       </c>
       <c r="E69" t="n">
         <v>17.51</v>
@@ -1681,7 +1681,7 @@
         <v>-6.42</v>
       </c>
       <c r="E73" t="n">
-        <v>17.78050000000001</v>
+        <v>17.88360000000001</v>
       </c>
     </row>
     <row r="74">
@@ -1698,7 +1698,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>16.1725</v>
+        <v>16.6271</v>
       </c>
     </row>
     <row r="75">
@@ -1780,7 +1780,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>-5.951899999999998</v>
+        <v>-6.057999999999998</v>
       </c>
       <c r="E79" t="n">
         <v>18.4</v>
@@ -1848,7 +1848,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-9.005599999999998</v>
+        <v>-8.880599999999998</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -1953,7 +1953,7 @@
         <v>-7</v>
       </c>
       <c r="E89" t="n">
-        <v>17.25280000000001</v>
+        <v>17.35640000000001</v>
       </c>
     </row>
     <row r="90">
@@ -1970,7 +1970,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>16.01999999999999</v>
+        <v>16.0063</v>
       </c>
     </row>
     <row r="91">
@@ -1984,7 +1984,7 @@
         <v>-10.09</v>
       </c>
       <c r="D91" t="n">
-        <v>-5.913999999999995</v>
+        <v>-6.060999999999996</v>
       </c>
       <c r="E91" t="n">
         <v>19.72</v>
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>18.92330000000002</v>
+        <v>18.65830000000002</v>
       </c>
     </row>
     <row r="93">
@@ -2018,7 +2018,7 @@
         <v>-11.3</v>
       </c>
       <c r="D93" t="n">
-        <v>-6.326399999999994</v>
+        <v>-6.510999999999995</v>
       </c>
       <c r="E93" t="n">
         <v>18.32</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.333500000000001</v>
+        <v>-8.310700000000004</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
